--- a/data/income_statement/2digits/size/85_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/85_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>85-Education</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>85-Education</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,296 +841,336 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1760037.43118</v>
+        <v>1912770.77186</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1951310.56821</v>
+        <v>2146846.98565</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2297686.99158</v>
+        <v>2538851.62001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2615686.31458</v>
+        <v>2933589.53073</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3477608.53419</v>
+        <v>3562670.46672</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4119050.0661</v>
+        <v>4299601.27039</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4887327.68012</v>
+        <v>5079948.031020001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3415495.30363</v>
+        <v>4932908.74555</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>5800106.390259999</v>
+        <v>6086967.1949</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>11679550.24274</v>
+        <v>7510794.509980001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>9106864.28967</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>9107319.535700001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>9419248.097999999</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1700706.40537</v>
+        <v>1840838.4872</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1905413.96571</v>
+        <v>2088848.46272</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2239778.68991</v>
+        <v>2463422.40125</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2539995.88782</v>
+        <v>2836803.90197</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3358604.398829999</v>
+        <v>3428417.18048</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3994287.97069</v>
+        <v>4159635.33735</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4720750.27827</v>
+        <v>4910931.55358</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>3234763.80494</v>
+        <v>4739510.05145</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>5567174.073280001</v>
+        <v>5864214.88752</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>11389403.99625</v>
+        <v>7239507.37423</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>8685364.253300002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>8726003.448930001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>9115889.970000001</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>24532.45862</v>
+        <v>36104.12965</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>6059.08054</v>
+        <v>20136.5396</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1611.12266</v>
+        <v>15009.50702</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>19835.55994</v>
+        <v>31664.96404</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>45724.77894</v>
+        <v>58340.87179999999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>33872.33762999999</v>
+        <v>28300.84657</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>33124.04686</v>
+        <v>27296.44309</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>63431.83316999999</v>
+        <v>50112.46204999999</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>67660.23204999999</v>
+        <v>61970.38532000001</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>74479.29953</v>
+        <v>57327.87432</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>100254.49387</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>64928.60521</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>36213.94</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>34798.56718999999</v>
+        <v>35828.15501</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>39837.52196</v>
+        <v>37861.98333</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>56297.17901000001</v>
+        <v>60419.71174</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>55854.86682</v>
+        <v>65120.66472</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>73279.35641999998</v>
+        <v>75912.41443999999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>90889.75778</v>
+        <v>111665.08647</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>133453.35499</v>
+        <v>141720.03435</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>117299.66552</v>
+        <v>143286.23205</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>165272.08493</v>
+        <v>160781.92206</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>215666.94696</v>
+        <v>213959.26143</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>321245.5425</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>316387.48156</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>267144.188</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>17112.36713</v>
+        <v>25651.04337</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>24558.98505</v>
+        <v>32256.50731</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>28465.54418</v>
+        <v>34706.65352</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>28393.6289</v>
+        <v>41774.43274</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>55060.70547</v>
+        <v>53984.52015</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>57613.21646000001</v>
+        <v>74572.20545000001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>66111.46312</v>
+        <v>70242.03320000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>41646.63511</v>
+        <v>84979.03075000001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>105915.267</v>
+        <v>121104.1249</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>4522611.799569999</v>
+        <v>171957.63433</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>398212.53104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>402720.74674</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>538715.202</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>2788.72237</v>
+        <v>2812.33707</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>2831.59505</v>
+        <v>3262.2187</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>3469.19378</v>
+        <v>3678.90712</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>4292.69145</v>
+        <v>4604.09168</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>6978.29735</v>
+        <v>5901.56245</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>17445.35651</v>
+        <v>17179.26859</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>18874.95923</v>
+        <v>19134.29976</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>17491.74897</v>
+        <v>23638.82157</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>22175.65652</v>
+        <v>22814.44946</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>4381800.89048</v>
+        <v>23019.08553</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>43463.48694</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>52319.10661</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>129235.6</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>14265.1286</v>
+        <v>22817.62265</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>20950.56276</v>
+        <v>26097.4593</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>24853.80543</v>
+        <v>30893.3379</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>22393.91427</v>
+        <v>35463.31788</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>46256.34045</v>
+        <v>46256.89003</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>37808.86543999999</v>
+        <v>55036.89235</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>43424.99181</v>
+        <v>47298.72601999999</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>18642.09688</v>
+        <v>56323.37147</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>75452.65358</v>
+        <v>90002.74126000001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>132960.51362</v>
+        <v>141088.15333</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>336469.51596</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>337224.28438</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>388553.87</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>58.51616000000001</v>
+        <v>21.08365</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>776.82724</v>
+        <v>2896.82931</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>142.54497</v>
+        <v>134.4085</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>1707.02318</v>
@@ -1238,340 +1179,385 @@
         <v>1826.06767</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>2358.99451</v>
+        <v>2356.04451</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>3811.51208</v>
+        <v>3809.00742</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>5512.78926</v>
+        <v>5016.83771</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>8286.956900000001</v>
+        <v>8286.93418</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>7850.395469999999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>18279.52814</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>13177.35575</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>20925.732</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1742925.06405</v>
+        <v>1887119.72849</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1926751.58316</v>
+        <v>2114590.478339999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2269221.4474</v>
+        <v>2504144.96649</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2587292.68568</v>
+        <v>2891815.09799</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3422547.82872</v>
+        <v>3508685.946570001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4061436.84964</v>
+        <v>4225029.06494</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4821216.217</v>
+        <v>5009705.997820001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3373848.66852</v>
+        <v>4847929.714799999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>5694191.123259999</v>
+        <v>5965863.07</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>7156938.443170001</v>
+        <v>7338836.87565</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>8708651.758630002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>8704598.788960001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>8880532.896</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1435322.47473</v>
+        <v>1535879.40857</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1580995.58638</v>
+        <v>1711030.6931</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1885230.7823</v>
+        <v>2054504.32489</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2152753.52705</v>
+        <v>2358483.41559</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2798395.95977</v>
+        <v>2848800.36035</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3312093.38501</v>
+        <v>3405821.68432</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3921171.11689</v>
+        <v>4061055.69701</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2614188.80176</v>
+        <v>3843295.69297</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>4520977.80886</v>
+        <v>4699991.511870001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5927746.753829999</v>
+        <v>6108287.95985</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>7473652.085980001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>7474990.502130001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>6597740.103</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>6655.833060000001</v>
+        <v>8218.021060000001</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>8368.444820000001</v>
+        <v>14611.01173</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>8860.906560000001</v>
+        <v>11699.75172</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>14683.14351</v>
+        <v>30896.77016</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>25933.71556</v>
+        <v>32641.87824</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>37683.60633</v>
+        <v>46041.24418000001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>55292.75654000001</v>
+        <v>58076.09003</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>28693.09153</v>
+        <v>49936.00812000001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>28773.27068000001</v>
+        <v>57355.59109999999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>83449.05716999999</v>
+        <v>85630.62049</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>194653.56602</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>178337.20696</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>179912.561</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>71089.09733</v>
+        <v>71072.90018000001</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>38253.52512000001</v>
+        <v>40187.68128</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>58867.363</v>
+        <v>60392.18437</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>60010.29364</v>
+        <v>72144.26828999999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>111392.61462</v>
+        <v>114946.49684</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>84522.17490000001</v>
+        <v>83380.49343</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>108657.07143</v>
+        <v>109224.43559</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>105950.0497</v>
+        <v>137492.47077</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>214643.95513</v>
+        <v>188005.50321</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>209230.90463</v>
+        <v>213073.80599</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>302312.2975399999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>299585.45796</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>330841.852</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1354097.50299</v>
+        <v>1452868.94016</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1516769.16787</v>
+        <v>1638411.40494</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1811822.40115</v>
+        <v>1976306.07099</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2074276.60704</v>
+        <v>2251142.46385</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2650261.22969</v>
+        <v>2690403.58537</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3145541.13832</v>
+        <v>3231730.9912</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3729326.67224</v>
+        <v>3864080.57176</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>2463003.45147</v>
+        <v>3629217.28909</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>4245278.73508</v>
+        <v>4416713.622439999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>5604200.317020001</v>
+        <v>5778717.058359999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>6916645.3227</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>6937026.937489999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>6052635.483</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>3480.04135</v>
+        <v>3719.54717</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>17604.44857</v>
+        <v>17820.59515</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>5680.11159</v>
+        <v>6106.31781</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>3783.48286</v>
+        <v>4299.91329</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>10808.3999</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>44346.46546000001</v>
+        <v>44668.95551000001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>27894.61668</v>
+        <v>29674.59963</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>16542.20906</v>
+        <v>26649.92499</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>32281.84797</v>
+        <v>37916.79512</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>30866.47501</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>60040.89971999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>60040.89972</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>34350.207</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>307602.58932</v>
+        <v>351240.31992</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>345755.99678</v>
+        <v>403559.78524</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>383990.6651</v>
+        <v>449640.6416</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>434539.15863</v>
+        <v>533331.6823999999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>624151.86895</v>
+        <v>659885.5862200001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>749343.4646299999</v>
+        <v>819207.38062</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>900045.10011</v>
+        <v>948650.3008099999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>759659.8667599999</v>
+        <v>1004634.02183</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1173213.3144</v>
+        <v>1265871.55813</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1229191.68934</v>
+        <v>1230548.9158</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1234999.67265</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1229608.28683</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2282792.793</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>245836.9324</v>
+        <v>260379.35927</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>257932.30015</v>
+        <v>281179.45145</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>304580.9752399999</v>
+        <v>341631.9617399999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>353648.71298</v>
+        <v>405205.57554</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>478190.67</v>
+        <v>487914.14105</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>554620.9409100001</v>
+        <v>592948.1137100001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>724486.3208700001</v>
+        <v>768344.8879499999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>576320.82871</v>
+        <v>794244.7076500001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>853181.70026</v>
+        <v>881379.43138</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1107864.32177</v>
+        <v>1107624.5217</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1345139.28122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1308513.71858</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1222398.735</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>101.70221</v>
@@ -1580,7 +1566,7 @@
         <v>281.49061</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>372.1843</v>
+        <v>375.81653</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>146.352</v>
@@ -1598,214 +1584,244 @@
         <v>802.4561600000001</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>296.87374</v>
+        <v>402.48144</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>456.95417</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>3612.72743</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>223.00101</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>20.35</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>23777.72054</v>
+        <v>23107.93347</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>26610.89538</v>
+        <v>28772.61779</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>33066.89766</v>
+        <v>35297.21077</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>39819.45662999999</v>
+        <v>47448.98055</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>53566.18015</v>
+        <v>57004.79558</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>63825.24182</v>
+        <v>72734.88293000001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>80976.21626</v>
+        <v>87071.47306</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>80429.56062</v>
+        <v>106548.16509</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>78144.27179000001</v>
+        <v>82629.47447</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>119303.9361</v>
+        <v>100991.35585</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>122348.30788</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>108420.3164</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>88213.817</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>221957.50965</v>
+        <v>237169.72359</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>231039.91416</v>
+        <v>252125.34305</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>271141.89328</v>
+        <v>305958.93444</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>313682.90435</v>
+        <v>357610.24299</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>418451.25886</v>
+        <v>424736.11448</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>490540.44505</v>
+        <v>519957.97674</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>642590.68018</v>
+        <v>680353.9904599999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>495088.81193</v>
+        <v>686894.0864</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>774740.55473</v>
+        <v>798347.4754700001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>988103.4315000001</v>
+        <v>1006176.21168</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1219178.24591</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1199870.40117</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1134164.568</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>61765.65692</v>
+        <v>90860.96065000001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>87823.69662999999</v>
+        <v>122380.33379</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>79409.68986000001</v>
+        <v>108008.67986</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>80890.44565000001</v>
+        <v>128126.10686</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>145961.19895</v>
+        <v>171971.44517</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>194722.52372</v>
+        <v>226259.26691</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>175558.77924</v>
+        <v>180305.41286</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>183339.03805</v>
+        <v>210389.31418</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>320031.61414</v>
+        <v>384492.12675</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>121327.36757</v>
+        <v>122924.3941</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-110139.60857</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-78905.43175</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1060394.058</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>39380.69175</v>
+        <v>51513.0684</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>44814.05008</v>
+        <v>52255.71639</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>70886.21462</v>
+        <v>87678.18724</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>72358.94927</v>
+        <v>84165.94698000001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>69093.47012</v>
+        <v>74424.41507999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>109293.97708</v>
+        <v>115192.44713</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>142526.4518</v>
+        <v>156192.70461</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>107430.48262</v>
+        <v>185010.09171</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>210364.243</v>
+        <v>236429.56241</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>469918.95876</v>
+        <v>498887.90409</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>457621.2787100001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>418172.25343</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>466305.421</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>164.8309</v>
+        <v>127.22239</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>85.07777</v>
+        <v>61.01736</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>7654.09689</v>
+        <v>47.37631</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>1388.2325</v>
+        <v>54.09927</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>221.32666</v>
+        <v>198.10126</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>153.20413</v>
+        <v>72.36538</v>
       </c>
       <c r="I26" s="48" t="n">
         <v>257.2522</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>326.65085</v>
+        <v>729.47447</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>91.89261</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>345.57356</v>
+        <v>145.87406</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>1464.17206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1214.11156</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>74.97</v>
@@ -1820,19 +1836,19 @@
         <v>668.9400000000001</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>0</v>
+        <v>4696.5866</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>308</v>
+        <v>5805.6776</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>386.5</v>
+        <v>6393.124650000001</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>579.46852</v>
+        <v>7053.902639999999</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>436</v>
+        <v>7496.449610000001</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>9088.906879999999</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>12033.96612</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>1155.661</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>21495.01404</v>
+        <v>25903.78582</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>17466.66761</v>
+        <v>21318.51861</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>16794.07199</v>
+        <v>22386.6308</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>22670.74902</v>
+        <v>32261.98687</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>31512.00688</v>
+        <v>32324.17393</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>40079.45827</v>
+        <v>46818.74308</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>47138.17848</v>
+        <v>54936.7682</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>25570.24765</v>
+        <v>58994.66621000001</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>67829.89263</v>
+        <v>85639.81004</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>125392.8779</v>
+        <v>117697.49016</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>151365.87333</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>142261.40327</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>120500.442</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>149.778</v>
@@ -1895,151 +1921,171 @@
         <v>147.67452</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>204.83257</v>
+        <v>294.05624</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>122.8834</v>
+        <v>123.0368</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>535.5219</v>
+        <v>534.72335</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>527.79962</v>
+        <v>464.14537</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>846.00922</v>
+        <v>1079.76275</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>669.64849</v>
+        <v>662.1839699999999</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>1262.03288</v>
+        <v>1250.49788</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>26707.70955</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>26662.85751</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>11973.039</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1185.84278</v>
+        <v>1405.9708</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1125.30544</v>
+        <v>1203.7549</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1868.88009</v>
+        <v>3543.58687</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>2136.0472</v>
+        <v>2682.71959</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>2479.80452</v>
+        <v>2515.64477</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>2879.61476</v>
+        <v>2974.13454</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>3926.67535</v>
+        <v>4610.93102</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>988.9173099999999</v>
+        <v>4321.321609999999</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>3248.90143</v>
+        <v>4175.80001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>5825.89207</v>
+        <v>8065.33608</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>6272.43169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>5274.13543</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>4213.784</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1338.00439</v>
+        <v>1506.62149</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>588.9652199999999</v>
+        <v>746.9961999999999</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>610.25393</v>
+        <v>763.45517</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1402.37897</v>
+        <v>1134.87018</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>626.59016</v>
+        <v>1154.14434</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1765.58864</v>
+        <v>1123.91219</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1225.17664</v>
+        <v>1155.90725</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>909.78426</v>
+        <v>1832.95647</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1760.52732</v>
+        <v>1957.19532</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>4174.47998</v>
+        <v>4819.26355</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>7675.85102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>7818.23402</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>5546.308</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>15015.40635</v>
+        <v>20784.74862</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>12618.37148</v>
+        <v>16188.53971</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>10845.68693</v>
+        <v>14511.36075</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>11048.60356</v>
+        <v>16966.65239</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>17562.30421</v>
+        <v>21346.14284</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>22197.65538</v>
+        <v>25124.07978</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>43735.95862</v>
+        <v>48975.27468000001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>40626.52153</v>
+        <v>51582.84696</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>59458.73671000001</v>
+        <v>74878.75093000001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>261872.3606</v>
+        <v>283038.823</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>153497.10877</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>141006.70487</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>232921.645</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2051,34 +2097,39 @@
         <v>170.3875</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>224.56295</v>
+        <v>336.16243</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>323.15798</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>239.51022</v>
+        <v>242.93689</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>216.03965</v>
+        <v>222.05907</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>969.58138</v>
+        <v>1169.08121</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>345.03278</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>192.3759</v>
+        <v>8345.734110000001</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>4623.18882</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>12009.724</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>36.80332</v>
@@ -2113,191 +2164,216 @@
       <c r="M34" s="48" t="n">
         <v>8.400040000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>1.809</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>-79.95803000000026</v>
+        <v>1523.167960000001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>12511.68513</v>
+        <v>12318.91218</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>32671.82825</v>
+        <v>45984.3808</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>32607.82285</v>
+        <v>29759.68036</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>16212.23171</v>
+        <v>11710.26196</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>41135.42378</v>
+        <v>32495.87432</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>45110.83734</v>
+        <v>39175.20827</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>36613.3019</v>
+        <v>58246.07938999999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>76306.75433000001</v>
+        <v>60965.59044000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>61479.28369</v>
+        <v>66150.80306999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>93972.57731000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>77269.25179000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>77158.00900000001</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>25259.13894</v>
+        <v>35470.92946</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>20463.75713</v>
+        <v>22667.30212</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>33037.80277</v>
+        <v>38586.69884</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>18690.84458</v>
+        <v>27639.16443</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>60070.25332</v>
+        <v>64805.79810000001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>39382.63225</v>
+        <v>45338.80565000001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>62134.25446</v>
+        <v>71061.22050000001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>55698.35764</v>
+        <v>89562.38279</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>72202.71911000001</v>
+        <v>100353.23434</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>237661.55335</v>
+        <v>251584.62289</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>269956.7436</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>244428.51918</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>191183.693</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>618.3348500000001</v>
+        <v>618.17138</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>692.78347</v>
+        <v>679.98033</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>827.92792</v>
+        <v>833.4547799999999</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>938.7475900000001</v>
+        <v>1036.31275</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>996.338</v>
+        <v>1049.94871</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1571.22351</v>
+        <v>1411.18455</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1292.83668</v>
+        <v>1325.68586</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1066.84175</v>
+        <v>1170.43587</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>1891.38803</v>
+        <v>1919.27847</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>2857.36076</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>3000.78467</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>3059.97576</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>3564.713</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>3928.22951</v>
+        <v>4446.742439999999</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>6194.58815</v>
+        <v>7736.7797</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>5210.21769</v>
+        <v>5519.720740000001</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>5907.58882</v>
+        <v>7696.06223</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>20580.71354</v>
+        <v>20772.74733</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>10969.73756</v>
+        <v>11594.15265</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>11340.91213</v>
+        <v>13329.75998</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>8329.75765</v>
+        <v>13810.93246</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>8128.861</v>
+        <v>17878.32436</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>10212.08211</v>
+        <v>17425.07024</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>16862.34502</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>13141.32755</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>16240.499</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>3.96251</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>17.26301</v>
+        <v>21.62763</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>24.44434</v>
+        <v>24.78336</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>63.04086</v>
+        <v>63.48836</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>101.6792</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>271.0067</v>
+        <v>271.51056</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>2.98917</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>0</v>
+        <v>85.29781</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>93.7773</v>
@@ -2306,91 +2382,106 @@
         <v>22.49638</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>72.56226000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>72.25266000000001</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>55.266</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>18904.28319</v>
+        <v>28511.32568</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>11136.23275</v>
+        <v>12005.37375</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>20042.71651</v>
+        <v>25171.30339</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>10635.96161</v>
+        <v>17578.15966</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>36461.09959</v>
+        <v>40950.99987000001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>24663.01881</v>
+        <v>29933.71681</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>46524.17289</v>
+        <v>53432.34096</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>42557.34465</v>
+        <v>69723.69116000002</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>59410.37124999999</v>
+        <v>77721.97009999999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>213085.43495</v>
+        <v>219773.14686</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>234978.71962</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>216715.48567</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>153018.092</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>137.95321</v>
+        <v>242.55246</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>117.51102</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>82.39062</v>
+        <v>193.9901</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>261.56506</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>224.36597</v>
+        <v>230.38539</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>1172.42156</v>
+        <v>1183.08854</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>944.6904299999999</v>
+        <v>1149.99497</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>179.05339</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>206.45014</v>
+        <v>1156.49782</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>4832.63703</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>11788.433</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>3.1937</v>
@@ -2414,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>0</v>
@@ -2425,386 +2516,436 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1801.13518</v>
+        <v>1887.53375</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2284.93647</v>
+        <v>1980.98818</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>6805.831539999999</v>
+        <v>6910.7718</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1063.11508</v>
+        <v>1071.15133</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>1668.85793</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1683.17993</v>
+        <v>1897.75592</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1800.92203</v>
+        <v>1787.35599</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>2799.72316</v>
+        <v>3622.02752</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>2499.26814</v>
+        <v>2560.83072</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>11277.72901</v>
+        <v>10350.05083</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>10209.695</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>6606.840510000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>6516.69</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>28224.44843</v>
+        <v>32453.54322</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>29360.48746</v>
+        <v>36214.65385</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>29082.69372</v>
+        <v>39698.64213</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>36392.80748</v>
+        <v>40565.87441999999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>50692.74937000001</v>
+        <v>54637.53129</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>72846.50347</v>
+        <v>77923.24792000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>108668.94671</v>
+        <v>108605.72652</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>116880.75144</v>
+        <v>157466.25039</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>191223.83788</v>
+        <v>221010.80239</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>323945.71991</v>
+        <v>403733.31433</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>388996.47367</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>413830.31341</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>396119.24</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>25449.63481</v>
+        <v>29474.00503</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>26629.24548</v>
+        <v>31442.68314</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>25409.15377</v>
+        <v>28141.05118</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>35162.75526</v>
+        <v>37102.76621</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>43241.95825</v>
+        <v>47511.56332</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>65366.97521</v>
+        <v>71525.88095000001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>95825.30894000002</v>
+        <v>96630.48643999999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>104911.47855</v>
+        <v>143750.73505</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>166477.53839</v>
+        <v>192402.73911</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>296090.3826899999</v>
+        <v>316011.0134000001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>355497.96531</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>344018.71608</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>314091.281</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>2774.81362</v>
+        <v>2979.53819</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>2731.24198</v>
+        <v>4771.97071</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>3673.53995</v>
+        <v>11557.59095</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>1230.05222</v>
+        <v>3463.10821</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>7450.791119999999</v>
+        <v>7125.967970000001</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>7479.52826</v>
+        <v>6397.36697</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>12843.63777</v>
+        <v>11975.24008</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>11969.27289</v>
+        <v>13715.51534</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>24746.29949</v>
+        <v>28608.06328</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>27855.33722</v>
+        <v>87722.30093</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>33498.50836</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>69811.59733</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>82027.959</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>47662.7613</v>
+        <v>74449.55637000001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>82813.50212</v>
+        <v>115754.09421</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>88175.40798999999</v>
+        <v>117401.52613</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>98165.74286</v>
+        <v>144087.01499</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>104291.66638</v>
+        <v>126952.53086</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>191787.36508</v>
+        <v>218189.66047</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>147282.02987</v>
+        <v>156831.17045</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>118190.41159</v>
+        <v>148370.77271</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>266969.30015</v>
+        <v>299557.65243</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>29639.05307</v>
+        <v>-33505.63903000001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-311471.54713</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-318992.01091</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>939396.546</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>35412.79264</v>
+        <v>35830.60676</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>37324.73498</v>
+        <v>32625.32996</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>35007.27689</v>
+        <v>38433.89589</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>19483.3913</v>
+        <v>30878.52295</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>60504.08610999999</v>
+        <v>61808.05851</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>36080.04912</v>
+        <v>33685.31301999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>69097.64743000001</v>
+        <v>116220.63405</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>57939.21348000001</v>
+        <v>69163.73231000001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>104622.89156</v>
+        <v>135412.01008</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>100370.11358</v>
+        <v>105411.60028</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>133191.8076</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>133853.6996</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>147267.625</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>188.02135</v>
+        <v>177.63249</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>44.88464999999999</v>
+        <v>481.42504</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>450.12563</v>
+        <v>554.42098</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>403.76663</v>
+        <v>314.70764</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>251.74535</v>
+        <v>315.47466</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>545.6829399999999</v>
+        <v>382.75487</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>518.7018200000001</v>
+        <v>551.66709</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>511.32685</v>
+        <v>1153.02689</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>994.1821699999999</v>
+        <v>1272.86596</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>649.87874</v>
+        <v>675.5391699999999</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>1545.79784</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>4547.619</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>35224.77129</v>
+        <v>35652.97427</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>37279.85033</v>
+        <v>32143.90492</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>34557.15126</v>
+        <v>37879.47491</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>19079.62467</v>
+        <v>30563.81531</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>60252.34075999999</v>
+        <v>61492.58385</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>35534.36618</v>
+        <v>33302.55815</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>68578.94561</v>
+        <v>115668.96696</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>57427.88663</v>
+        <v>68010.70542</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>103628.70939</v>
+        <v>134139.14412</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>99720.23484000002</v>
+        <v>104736.06111</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>131646.00976</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>132307.90176</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>142720.006</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>13386.87028</v>
+        <v>13936.96136</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>17898.88006</v>
+        <v>19515.81648</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>158926.66952</v>
+        <v>172886.82825</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>52101.52143000001</v>
+        <v>55434.40435</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>34001.18097</v>
+        <v>27821.64113</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>65777.18811999999</v>
+        <v>64939.61415</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>83177.25582999999</v>
+        <v>85922.18506999999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>93840.49788</v>
+        <v>100436.70065</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>76202.11190999999</v>
+        <v>98960.02232999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>172177.63521</v>
+        <v>171945.36974</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>114269.88709</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>97134.95805999999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>102114.619</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>911.87654</v>
+        <v>1211.54044</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>760.94262</v>
+        <v>730.93552</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1868.82462</v>
+        <v>2012.89876</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>2597.05393</v>
+        <v>1733.78832</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1808.72632</v>
+        <v>1652.60612</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1721.71677</v>
+        <v>942.9752000000001</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>559.64519</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>115.45679</v>
+        <v>1073.79559</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>1036.64418</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>1027.22093</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>6833.636</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1572.67091</v>
+        <v>1648.92739</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>894.22295</v>
+        <v>2247.73306</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>6505.02865</v>
+        <v>4525.328390000001</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1206.46351</v>
+        <v>1572.79893</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>9268.98568</v>
+        <v>9069.673869999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2494.97555</v>
+        <v>2400.20614</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3881.87372</v>
+        <v>3775.732550000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>564.15526</v>
+        <v>1261.31211</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>6306.1612</v>
+        <v>3537.76688</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>3680.54684</v>
+        <v>3674.67543</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>3601.63773</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>3652.54944</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>3800.444</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>10902.32283</v>
+        <v>11076.49353</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>16243.71449</v>
+        <v>16537.1479</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>150552.81625</v>
+        <v>166348.6011</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>48298.00399000001</v>
+        <v>52127.8171</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>22923.46897</v>
+        <v>17099.36114</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>61560.4958</v>
+        <v>61596.43281000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>78735.73691999998</v>
+        <v>81586.80733</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>93160.88582999998</v>
+        <v>98101.59295000001</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>68859.30653</v>
+        <v>94385.61127000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>167898.94097</v>
+        <v>167672.54691</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>109641.02843</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>92455.18769000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>91480.539</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>69688.68366</v>
+        <v>96343.20177</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>102239.35704</v>
+        <v>128863.60769</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-35743.98464</v>
+        <v>-17051.40623</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>65547.61272999999</v>
+        <v>119531.13359</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>130794.57152</v>
+        <v>160938.94824</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>162090.22608</v>
+        <v>186935.35934</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>133202.42147</v>
+        <v>187129.61943</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>82289.12719</v>
+        <v>117097.80437</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>295390.0798</v>
+        <v>336009.64018</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-42168.46856</v>
+        <v>-100039.40849</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-292549.6266199999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-282273.26937</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>984549.552</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>18509.38184</v>
+        <v>19923.48207</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>19666.81341</v>
+        <v>22339.08473</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>20993.69023</v>
+        <v>27472.12869</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>24876.3597</v>
+        <v>29874.38383</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>33004.94813</v>
+        <v>32428.39484</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>38945.71129</v>
+        <v>41115.76683000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>43147.31129999999</v>
+        <v>44940.30438999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>26489.78553</v>
+        <v>44852.41845999999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>54144.21443000001</v>
+        <v>54451.88686</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>86864.68296999999</v>
+        <v>81279.25463000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>79139.99762000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>72881.81046000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>110022.753</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>51179.30182000001</v>
+        <v>76419.7197</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>82572.54363000001</v>
+        <v>106524.52296</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-56737.67487</v>
+        <v>-44523.53492</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>40671.25303</v>
+        <v>89656.74976000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>97789.62338999999</v>
+        <v>128510.5534</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>123144.51479</v>
+        <v>145819.59251</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>90055.11017</v>
+        <v>142189.31504</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>55799.34166000001</v>
+        <v>72245.38591</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>241245.86537</v>
+        <v>281557.75332</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-129033.15153</v>
+        <v>-181318.66312</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-371689.62424</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-355155.0798300001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>874526.799</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>606</v>
+        <v>587</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>691</v>
+        <v>664</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>789</v>
+        <v>747</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>934</v>
+        <v>892</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>686</v>
+        <v>786</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>947</v>
+        <v>868</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1022</v>
+        <v>1006</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1131</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>